--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-S-Z.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-S-Z.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D55145B-4B3B-4220-96AF-72CC08F08A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DF26B1-1957-4BB2-AA8D-6DC3C8C55648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82485" yWindow="375" windowWidth="31200" windowHeight="21360" firstSheet="2" activeTab="10" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" firstSheet="4" activeTab="8" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="TRIGO" sheetId="11" r:id="rId10"/>
     <sheet name="ZANAHORIA" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="30">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -128,6 +123,15 @@
   <si>
     <t>Замеченные и исправленные опечатки выделены синим фоном</t>
   </si>
+  <si>
+    <t>Promedio 1958/59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio 1971/74 </t>
+  </si>
+  <si>
+    <t>Promedio 1932/34</t>
+  </si>
 </sst>
 </file>
 
@@ -202,10 +206,10 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,14 +530,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -552,12 +556,12 @@
       <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -565,17 +569,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -609,7 +613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -639,7 +643,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -673,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -707,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -741,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -775,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -809,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -846,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -880,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -914,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -948,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -982,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -1016,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1266,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1473,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1541,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1645,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1786,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1854,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1891,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -2033,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -2288,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -2363,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -2399,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -2435,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -2471,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -2654,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -3020,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -3056,7 +3060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -3092,13 +3096,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -3113,17 +3117,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDA0003-06E0-4302-9A6D-AC349A0F36B0}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3131,17 +3135,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3175,7 +3179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3209,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -3227,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -3271,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -3315,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -3362,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -3428,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -3450,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -3475,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -3497,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -3519,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -3541,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -3585,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -3610,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3654,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3676,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3698,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3745,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3767,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -3833,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -3855,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3902,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3924,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3946,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3990,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -4015,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -4081,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -4103,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -4125,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -4150,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -4194,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -4216,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -4238,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4307,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4351,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4373,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -4420,7 +4424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -4442,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -4486,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -4508,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -4530,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -4555,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -4657,7 +4661,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -4725,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -4762,7 +4766,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -4796,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4830,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4864,13 +4868,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -4890,12 +4894,12 @@
       <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4903,17 +4907,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4947,7 +4951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4977,7 +4981,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -5065,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5087,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -5112,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5156,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5178,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5200,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5222,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5269,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5313,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -5335,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -5357,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -5382,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -5426,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -5448,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -5470,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -5492,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -5561,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -5583,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -5740,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -5762,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -5787,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -5809,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -5853,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -5875,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -5897,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -5966,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -5988,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6032,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -6057,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6079,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6101,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6123,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6145,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6167,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -6192,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6214,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6258,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6302,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -6349,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -6371,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -6415,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -6437,7 +6441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -6462,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -6484,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -6506,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -6528,13 +6532,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -6554,12 +6558,12 @@
       <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -6567,17 +6571,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -6611,7 +6615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -6641,7 +6645,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -6673,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -6739,7 +6743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -6807,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -6844,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -6878,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7014,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -7051,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7119,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7153,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7187,7 +7191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -7258,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -7292,7 +7296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -7326,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -7394,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -7428,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -7465,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -7499,7 +7503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -7533,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -7567,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -7601,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -7635,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -7672,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -7740,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -7774,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -7808,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -7842,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -7879,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -7913,7 +7917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -7947,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -7981,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8015,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8051,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -8090,7 +8094,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -8124,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -8158,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8226,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -8260,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -8297,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -8333,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -8367,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -8401,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -8437,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -8471,7 +8475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -8510,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -8546,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -8582,7 +8586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -8618,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8654,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8690,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -8729,7 +8733,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8763,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8797,7 +8801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8831,7 +8835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8865,7 +8869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -8936,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8970,7 +8974,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -9004,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -9038,13 +9042,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -9064,12 +9068,12 @@
       <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -9077,17 +9081,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -9121,7 +9125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -9151,7 +9155,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -9183,7 +9187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9215,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -9247,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -9279,7 +9283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -9311,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -9346,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -9380,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -9412,7 +9416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -9444,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -9478,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -9547,7 +9551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -9579,7 +9583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -9611,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -9643,7 +9647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -9675,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9707,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -9742,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9774,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9806,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9838,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -9870,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -9902,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -9937,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -9969,7 +9973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -10001,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -10033,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -10063,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -10097,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -10134,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10168,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -10200,7 +10204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -10234,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -10266,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -10298,7 +10302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -10335,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -10369,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -10403,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -10437,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -10471,7 +10475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -10505,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -10542,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -10576,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -10610,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -10644,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -10678,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10712,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -10749,7 +10753,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10783,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10817,7 +10821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -10851,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -10885,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -10919,7 +10923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -10956,7 +10960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -10990,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -11024,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11058,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11090,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11122,7 +11126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -11159,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -11191,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -11223,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -11255,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -11287,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -11321,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -11358,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -11392,7 +11396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -11426,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -11460,14 +11464,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -11484,15 +11488,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11500,17 +11504,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11544,7 +11548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11574,7 +11578,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -11596,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11618,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11640,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11662,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11684,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -11709,7 +11713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11731,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11753,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11775,7 +11779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11797,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -11819,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -11844,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -11866,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -11888,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -11910,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -11954,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -11979,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -12001,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -12023,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -12045,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -12067,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -12089,7 +12093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -12114,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -12136,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -12158,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12180,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -12202,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -12224,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -12249,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12271,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12293,7 +12297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12315,7 +12319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12337,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12359,7 +12363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12384,7 +12388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12406,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12428,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12450,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12486,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -12522,9 +12526,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B45" s="8">
         <v>113393</v>
@@ -12561,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -12597,7 +12601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -12633,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -12669,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -12705,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -12741,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -12780,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -12816,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -12852,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -12888,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -12924,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -12960,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -12999,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -13035,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -13071,7 +13075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13107,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13143,7 +13147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13179,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13221,7 +13225,7 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13257,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13293,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13329,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13365,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13401,7 +13405,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -13440,7 +13444,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13476,7 +13480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13512,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -13548,14 +13552,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -13572,15 +13576,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S51" sqref="S51"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13588,17 +13592,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -13632,7 +13636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -13662,7 +13666,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -13684,7 +13688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -13706,7 +13710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -13728,7 +13732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -13750,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -13772,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -13797,7 +13801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -13819,7 +13823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -13841,7 +13845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -13863,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -13885,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -13907,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -13932,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -13954,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -13976,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -13998,7 +14002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -14020,7 +14024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -14042,7 +14046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -14067,7 +14071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -14089,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14111,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14133,7 +14137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14155,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14177,7 +14181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14202,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14224,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14246,7 +14250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14268,7 +14272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14290,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14312,7 +14316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14337,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14359,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14381,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14403,7 +14407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14425,7 +14429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14447,7 +14451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -14472,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14494,7 +14498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14516,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14538,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14560,7 +14564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14582,7 +14586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -14607,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -14629,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -14651,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -14673,7 +14677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -14695,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -14717,7 +14721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -14742,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -14764,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -14786,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -14808,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -14830,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -14852,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -14877,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -14899,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -14933,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -14967,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15001,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15035,9 +15039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B63" s="8">
         <v>16130</v>
@@ -15072,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15106,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15140,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15174,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15193,7 +15197,7 @@
         <v>4677</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="I67" s="13">
+      <c r="I67" s="12">
         <v>41423</v>
       </c>
       <c r="J67" s="6">
@@ -15208,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15242,7 +15246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15284,7 +15288,7 @@
       <c r="V69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15314,7 +15318,7 @@
         <v>-14226</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15348,7 +15352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15382,13 +15386,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15405,15 +15409,15 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15421,17 +15425,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15465,7 +15469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15495,7 +15499,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15517,7 +15521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15539,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -15561,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -15583,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -15605,7 +15609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -15630,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -15652,7 +15656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -15674,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -15696,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -15718,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -15740,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -15765,7 +15769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -15787,7 +15791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -15809,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -15853,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -15875,7 +15879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -15900,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -15922,7 +15926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -15944,7 +15948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -15966,7 +15970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -15988,7 +15992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16010,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16035,7 +16039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16057,7 +16061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16079,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16101,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16123,7 +16127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16145,7 +16149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16170,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16192,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16214,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16236,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16258,7 +16262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16280,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16305,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16327,7 +16331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16349,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16371,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16393,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16415,7 +16419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16440,7 +16444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16462,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -16484,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -16506,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -16528,7 +16532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -16550,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -16575,7 +16579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -16597,7 +16601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -16619,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -16641,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -16663,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -16685,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -16710,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -16732,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -16764,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -16796,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -16828,7 +16832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -16860,9 +16864,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B63" s="8">
         <v>14242</v>
@@ -16895,7 +16899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -16927,7 +16931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -16959,7 +16963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -16991,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17023,7 +17027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17055,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17090,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17122,7 +17126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17154,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17186,13 +17190,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -17212,12 +17216,12 @@
       <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17225,17 +17229,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17269,7 +17273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17299,7 +17303,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17335,7 +17339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17371,7 +17375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17407,7 +17411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17443,7 +17447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17479,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -17518,7 +17522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -17554,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -17590,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -17626,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -17662,7 +17666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -17698,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -17737,7 +17741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -17769,7 +17773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -17801,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -17833,7 +17837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -17865,7 +17869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -17897,7 +17901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -17932,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -17964,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -17996,7 +18000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18032,7 +18036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18068,7 +18072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18104,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -18143,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18179,7 +18183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18215,7 +18219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18251,7 +18255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18287,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18323,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -18362,7 +18366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18398,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18434,7 +18438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18470,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -18506,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -18542,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -18581,7 +18585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -18617,7 +18621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -18653,7 +18657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -18689,7 +18693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -18725,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -18761,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -18800,7 +18804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -18836,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -18872,7 +18876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -18908,7 +18912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -18944,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -18980,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -19019,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -19055,7 +19059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -19091,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -19127,7 +19131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -19163,7 +19167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -19199,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -19238,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19274,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19310,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19346,7 +19350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19382,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19418,7 +19422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -19457,7 +19461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -19493,7 +19497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -19529,7 +19533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -19565,7 +19569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -19601,7 +19605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -19637,7 +19641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -19676,7 +19680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -19712,7 +19716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -19748,7 +19752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -19784,14 +19788,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -19806,17 +19810,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD598A5-8B69-4FE2-82F4-961DF03CA224}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -19824,17 +19828,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -19868,7 +19872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -19898,7 +19902,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -19920,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -19942,7 +19946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -19964,7 +19968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -19986,7 +19990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -20008,7 +20012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -20033,7 +20037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -20055,7 +20059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -20077,7 +20081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -20109,7 +20113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -20141,7 +20145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -20173,9 +20177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B15" s="8">
         <v>1577</v>
@@ -20208,7 +20212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -20240,7 +20244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -20272,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -20304,7 +20308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -20336,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -20368,7 +20372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -20403,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -20435,7 +20439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -20467,7 +20471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -20499,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -20531,7 +20535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -20563,7 +20567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -20598,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -20630,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -20662,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -20694,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -20726,7 +20730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -20758,7 +20762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -20793,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -20825,7 +20829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -20857,7 +20861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -20889,7 +20893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -20921,7 +20925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -20953,7 +20957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -20988,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -21020,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -21052,7 +21056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -21084,7 +21088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -21116,7 +21120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -21148,7 +21152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -21183,7 +21187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -21215,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -21247,7 +21251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -21279,7 +21283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -21311,7 +21315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -21343,7 +21347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -21378,7 +21382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -21410,7 +21414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -21442,7 +21446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -21474,7 +21478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -21506,7 +21510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -21538,7 +21542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -21573,7 +21577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -21605,7 +21609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -21637,7 +21641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -21669,7 +21673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -21701,7 +21705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -21733,7 +21737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -21768,7 +21772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -21800,7 +21804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -21832,7 +21836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -21864,7 +21868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -21896,7 +21900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -21928,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -21963,7 +21967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -21995,7 +21999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -22027,7 +22031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -22059,13 +22063,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-S-Z.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-S-Z.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DF26B1-1957-4BB2-AA8D-6DC3C8C55648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E2B89-7416-482E-8ED4-8DB89BAE8B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" firstSheet="4" activeTab="8" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="77235" yWindow="990" windowWidth="31200" windowHeight="21360" firstSheet="4" activeTab="10" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="TRIGO" sheetId="11" r:id="rId10"/>
     <sheet name="ZANAHORIA" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -530,14 +535,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -556,12 +561,12 @@
       <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -579,7 +584,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -613,7 +618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -643,7 +648,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -677,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -711,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -745,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -779,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -813,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -850,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -884,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -918,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -952,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -986,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -1020,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -1091,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -1127,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1197,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1231,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1304,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1372,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1440,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1477,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1511,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1613,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1649,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1756,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1790,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1824,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1858,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1895,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1931,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1967,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -2003,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -2037,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -2073,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -2112,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -2148,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -2184,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -2220,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -2292,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -2331,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -2367,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -2403,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -2475,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -2550,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -2694,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2877,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2913,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2988,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -3024,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -3060,7 +3065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -3096,13 +3101,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -3117,17 +3122,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDA0003-06E0-4302-9A6D-AC349A0F36B0}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3145,7 +3150,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3179,7 +3184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3209,7 +3214,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -3231,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -3253,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -3275,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -3297,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -3319,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -3366,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -3410,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -3432,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -3454,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -3523,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -3545,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -3567,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -3589,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -3614,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -3636,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3658,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3680,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3724,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3749,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3771,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3793,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -3837,7 +3842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -3859,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -3884,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3906,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3928,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3950,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3972,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3994,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -4019,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4041,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -4063,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -4085,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -4107,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -4129,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -4176,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -4198,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -4220,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -4264,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -4289,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4311,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4333,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4355,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4377,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4399,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -4424,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -4446,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -4490,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -4512,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -4534,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -4559,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -4593,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>103813</v>
       </c>
       <c r="J65" s="6">
-        <v>2.68</v>
+        <v>1.68</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="0"/>
@@ -4627,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -4661,7 +4666,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -4695,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -4729,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -4766,7 +4771,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -4800,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4834,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4868,13 +4873,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -4894,12 +4899,12 @@
       <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4917,7 +4922,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4951,7 +4956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4981,7 +4986,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -5003,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5025,7 +5030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -5047,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -5069,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -5116,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5138,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5160,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5182,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5204,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5226,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -5251,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5273,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5295,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5317,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -5339,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -5361,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -5386,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -5408,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -5430,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -5452,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -5496,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -5521,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -5543,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -5565,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -5587,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -5609,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -5631,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -5656,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -5678,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -5700,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -5722,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -5744,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -5766,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -5791,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -5813,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -5835,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -5857,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -5879,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -5901,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -5926,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -5948,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -5970,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -5992,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -6014,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6036,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -6061,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6083,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6105,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6127,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6149,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -6196,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6218,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6240,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6262,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6284,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6306,7 +6311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -6353,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -6375,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -6397,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -6419,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -6441,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -6488,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -6510,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -6532,13 +6537,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -6558,12 +6563,12 @@
       <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -6581,7 +6586,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -6615,7 +6620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -6645,7 +6650,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -6677,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -6709,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -6743,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -6777,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -6811,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -6848,7 +6853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -6882,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -6916,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -6950,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -6984,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7018,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -7055,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7089,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7123,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7157,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7191,7 +7196,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7225,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -7262,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -7296,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -7330,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -7364,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -7398,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -7432,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -7469,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -7503,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -7537,7 +7542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -7571,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -7605,7 +7610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -7639,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -7676,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -7710,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -7744,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -7778,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -7846,7 +7851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -7883,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -7917,7 +7922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -7951,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -7985,7 +7990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8019,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8055,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -8094,7 +8099,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -8128,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -8162,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -8196,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8230,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -8264,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -8301,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -8337,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -8371,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -8405,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -8441,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -8475,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -8514,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -8550,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -8586,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -8622,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8658,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8694,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -8733,7 +8738,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8767,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8801,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8835,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8869,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8903,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -8940,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -8974,7 +8979,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -9008,7 +9013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -9042,13 +9047,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -9068,12 +9073,12 @@
       <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -9091,7 +9096,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -9125,7 +9130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -9155,7 +9160,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -9187,7 +9192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9219,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -9251,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -9283,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -9315,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -9350,7 +9355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -9384,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -9416,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -9448,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -9482,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -9514,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -9551,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -9583,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -9615,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -9647,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -9679,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9711,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -9746,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9778,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9810,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9842,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -9874,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -9906,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -9941,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -9973,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -10005,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -10037,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -10067,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -10101,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -10138,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10172,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -10204,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -10238,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -10270,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -10302,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -10339,7 +10344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -10373,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -10407,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -10441,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -10475,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -10509,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -10546,7 +10551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -10580,7 +10585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -10614,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -10648,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -10682,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10716,7 +10721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -10753,7 +10758,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10787,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10821,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -10855,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -10889,7 +10894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -10923,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -10960,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -10994,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -11028,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11062,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11094,7 +11099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11126,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -11163,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -11195,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -11227,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -11259,7 +11264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -11291,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -11325,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -11362,7 +11367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -11396,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -11430,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -11464,14 +11469,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="F73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -11491,12 +11496,12 @@
       <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11514,7 +11519,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11548,7 +11553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11578,7 +11583,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -11600,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11622,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11644,7 +11649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11666,7 +11671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11688,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -11713,7 +11718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11735,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11757,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11779,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11801,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -11823,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -11848,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -11870,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -11892,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -11914,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -11936,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -11958,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -11983,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -12005,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -12027,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -12049,7 +12054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -12071,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -12093,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -12118,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -12140,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -12162,7 +12167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12184,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -12206,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -12228,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -12253,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12275,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12297,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12319,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12341,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12363,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -12388,7 +12393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12410,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12432,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12454,7 +12459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12490,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -12526,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>27</v>
       </c>
@@ -12565,7 +12570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -12601,7 +12606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -12637,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -12673,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -12709,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -12745,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -12784,7 +12789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -12820,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -12856,7 +12861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -12892,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -12928,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -12964,7 +12969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -13003,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -13039,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -13075,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13111,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13147,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13183,7 +13188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -13225,7 +13230,7 @@
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13261,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13297,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13333,7 +13338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13369,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13405,7 +13410,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -13444,7 +13449,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13480,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13516,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -13552,14 +13557,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -13579,12 +13584,12 @@
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13602,7 +13607,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -13636,7 +13641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -13666,7 +13671,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -13688,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -13710,7 +13715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -13732,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -13754,7 +13759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -13776,7 +13781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -13801,7 +13806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -13823,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -13845,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -13867,7 +13872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -13889,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -13911,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -13936,7 +13941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -13958,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -13980,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -14002,7 +14007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -14024,7 +14029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -14046,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -14071,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -14093,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14115,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14137,7 +14142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14159,7 +14164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14181,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -14206,7 +14211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14228,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14250,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14272,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14294,7 +14299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14316,7 +14321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -14341,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14363,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14385,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14407,7 +14412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14429,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14451,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -14476,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14498,7 +14503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14520,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14542,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14564,7 +14569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14586,7 +14591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -14611,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -14633,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -14655,7 +14660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -14677,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -14699,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -14721,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -14746,7 +14751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -14768,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -14790,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -14812,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -14834,7 +14839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -14856,7 +14861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -14881,7 +14886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -14903,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -14937,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -14971,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15005,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15039,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>28</v>
       </c>
@@ -15076,7 +15081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15110,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15144,7 +15149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15178,7 +15183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15212,7 +15217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15246,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -15288,7 +15293,7 @@
       <c r="V69" s="3"/>
       <c r="X69" s="3"/>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15318,7 +15323,7 @@
         <v>-14226</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15352,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15386,13 +15391,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -15412,12 +15417,12 @@
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15435,7 +15440,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15469,7 +15474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15499,7 +15504,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15521,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15543,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -15565,7 +15570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -15587,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -15609,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -15634,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -15656,7 +15661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -15678,7 +15683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -15700,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -15722,7 +15727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -15744,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -15769,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -15791,7 +15796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -15813,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -15835,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -15857,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -15879,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -15904,7 +15909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -15926,7 +15931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -15948,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -15970,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -15992,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16014,7 +16019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16039,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16061,7 +16066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16083,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16105,7 +16110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16127,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16149,7 +16154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16174,7 +16179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16196,7 +16201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16218,7 +16223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16240,7 +16245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16262,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16284,7 +16289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16309,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16331,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16353,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16375,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16397,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16419,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -16444,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16466,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -16488,7 +16493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -16510,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -16532,7 +16537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -16554,7 +16559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -16579,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -16601,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -16623,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -16645,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -16667,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -16689,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -16714,7 +16719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -16736,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -16768,7 +16773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -16800,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -16832,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -16864,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>28</v>
       </c>
@@ -16899,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -16931,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -16963,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -16995,7 +17000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17027,7 +17032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17059,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -17094,7 +17099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17126,7 +17131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17158,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17190,13 +17195,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -17216,12 +17221,12 @@
       <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17239,7 +17244,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17273,7 +17278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17303,7 +17308,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17339,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17375,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17411,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17447,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17483,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -17522,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -17558,7 +17563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -17594,7 +17599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -17630,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -17666,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -17702,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -17741,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -17773,7 +17778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -17805,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -17837,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -17869,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -17901,7 +17906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -17936,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -17968,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18000,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18036,7 +18041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18072,7 +18077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18108,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -18147,7 +18152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18183,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18219,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18255,7 +18260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18291,7 +18296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18327,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -18366,7 +18371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18402,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18438,7 +18443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18474,7 +18479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -18510,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -18546,7 +18551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -18585,7 +18590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -18621,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -18657,7 +18662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -18693,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -18729,7 +18734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -18765,7 +18770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -18804,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -18840,7 +18845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -18876,7 +18881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -18912,7 +18917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -18948,7 +18953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -18984,7 +18989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -19023,7 +19028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -19059,7 +19064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -19095,7 +19100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -19131,7 +19136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -19167,7 +19172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -19203,7 +19208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -19242,7 +19247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19278,7 +19283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -19314,7 +19319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -19350,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -19386,7 +19391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -19422,7 +19427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -19461,7 +19466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -19497,7 +19502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -19533,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -19569,7 +19574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -19605,7 +19610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -19641,7 +19646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -19680,7 +19685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -19716,7 +19721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -19752,7 +19757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -19788,14 +19793,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I73" s="3"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -19810,17 +19815,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD598A5-8B69-4FE2-82F4-961DF03CA224}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -19838,7 +19843,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -19872,7 +19877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -19902,7 +19907,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -19924,7 +19929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -19946,7 +19951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -19968,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -19990,7 +19995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -20012,7 +20017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -20037,7 +20042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -20059,7 +20064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -20081,7 +20086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -20113,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -20145,7 +20150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -20177,7 +20182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
@@ -20212,7 +20217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -20244,7 +20249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -20276,7 +20281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -20308,7 +20313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -20340,7 +20345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -20372,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -20407,7 +20412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -20439,7 +20444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -20471,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -20503,7 +20508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -20535,7 +20540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -20567,7 +20572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -20602,7 +20607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -20634,7 +20639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -20666,7 +20671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -20698,7 +20703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -20730,7 +20735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -20762,7 +20767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -20797,7 +20802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -20829,7 +20834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -20861,7 +20866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -20893,7 +20898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -20925,7 +20930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -20957,7 +20962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -20992,7 +20997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -21024,7 +21029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -21056,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -21088,7 +21093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -21120,7 +21125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -21152,7 +21157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -21187,7 +21192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -21219,7 +21224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -21251,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -21283,7 +21288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -21315,7 +21320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -21347,7 +21352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -21382,7 +21387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -21414,7 +21419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -21446,7 +21451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -21478,7 +21483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -21510,7 +21515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -21542,7 +21547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -21577,7 +21582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -21609,7 +21614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -21641,7 +21646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -21673,7 +21678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -21705,7 +21710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -21737,7 +21742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -21772,7 +21777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -21804,7 +21809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -21836,7 +21841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -21868,7 +21873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -21900,7 +21905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -21932,7 +21937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -21967,7 +21972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -21999,7 +22004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -22031,7 +22036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -22063,13 +22068,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-S-Z.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-S-Z.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1E2B89-7416-482E-8ED4-8DB89BAE8B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97665EF6-2B9D-4173-85A0-1B98112CE898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77235" yWindow="990" windowWidth="31200" windowHeight="21360" firstSheet="4" activeTab="10" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" firstSheet="4" activeTab="8" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -142,8 +142,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -194,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,6 +216,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3122,9 +3125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDA0003-06E0-4302-9A6D-AC349A0F36B0}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13581,7 +13584,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15205,8 +15208,8 @@
       <c r="I67" s="12">
         <v>41423</v>
       </c>
-      <c r="J67" s="6">
-        <v>0.55500000000000005</v>
+      <c r="J67" s="15">
+        <v>0.63100000000000001</v>
       </c>
       <c r="M67" s="2">
         <f t="shared" si="0"/>
@@ -15290,7 +15293,9 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
       <c r="V69" s="3"/>
+      <c r="W69" s="14"/>
       <c r="X69" s="3"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
@@ -19815,9 +19820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD598A5-8B69-4FE2-82F4-961DF03CA224}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -21830,7 +21835,7 @@
         <v>60364</v>
       </c>
       <c r="J65" s="6">
-        <v>0.9</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="M65" s="2">
         <f t="shared" si="0"/>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-S-Z.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-S-Z.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F402EF-BC6C-4531-9F8A-1C47C7A37019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF5C6C8-3BF2-4D78-868A-7445CB19EBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="2055" windowWidth="23355" windowHeight="19110" firstSheet="2" activeTab="7" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="2625" yWindow="1755" windowWidth="23355" windowHeight="19110" firstSheet="5" activeTab="10" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -2827,11 +2827,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25347293-2D92-4663-B4DA-CB48792A00DA}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="N69" s="10"/>
       <c r="O69" s="10">
-        <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
+        <f t="shared" ref="O69:O76" si="3">D69-G69+F69-I69</f>
         <v>0</v>
       </c>
     </row>
@@ -5375,19 +5375,111 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J73" s="6"/>
+      <c r="A73" s="1">
+        <v>1983</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="D73" s="3">
+        <v>3460242</v>
+      </c>
+      <c r="F73" s="3">
+        <v>402424</v>
+      </c>
+      <c r="G73" s="3">
+        <v>8303</v>
+      </c>
+      <c r="I73" s="3">
+        <v>3854363</v>
+      </c>
+      <c r="J73" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J74" s="6"/>
+      <c r="A74" s="1">
+        <v>1984</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="D74" s="3">
+        <v>4505245</v>
+      </c>
+      <c r="F74" s="3">
+        <v>346425</v>
+      </c>
+      <c r="G74" s="3">
+        <v>11208</v>
+      </c>
+      <c r="I74" s="3">
+        <v>4840462</v>
+      </c>
+      <c r="J74" s="6">
+        <v>62.3</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J75" s="6"/>
+      <c r="A75" s="1">
+        <v>1985</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="D75" s="3">
+        <v>5214315</v>
+      </c>
+      <c r="F75" s="3">
+        <v>323233</v>
+      </c>
+      <c r="G75" s="3">
+        <v>13884</v>
+      </c>
+      <c r="I75" s="3">
+        <v>5523664</v>
+      </c>
+      <c r="J75" s="6">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>1986</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="D76" s="3">
+        <v>4347000</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4347000</v>
+      </c>
+      <c r="J76" s="6">
+        <v>53</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19491,7 +19583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB74E0F-5302-4BAE-91F5-DD583540ACF5}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
     </sheetView>
